--- a/DATA/PAProg.xlsx
+++ b/DATA/PAProg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/N457149/Documents/GitHub/Project1/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD090442-5F20-E543-B500-6312D8593D48}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562420F0-F793-9E43-B459-CABEF1A32513}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20960" xr2:uid="{D8F172B6-29F2-BE48-A9D4-F8BDBD301C21}"/>
+    <workbookView xWindow="35840" yWindow="0" windowWidth="51200" windowHeight="21600" xr2:uid="{D8F172B6-29F2-BE48-A9D4-F8BDBD301C21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,10 +74,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF555555"/>
-      <name val="Courier"/>
-      <family val="1"/>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Retina"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,14 +121,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,24 +446,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C3B9BA-49BB-234C-B69E-2DDFFA88E049}">
-  <dimension ref="A1:X14"/>
+  <dimension ref="A1:AX34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W1" sqref="W1:W2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AL15" sqref="AL15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="15" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="24" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="11" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="11" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="18.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" s="3" customFormat="1" ht="21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -494,23 +534,104 @@
       <c r="R1" s="2">
         <v>3147799</v>
       </c>
-      <c r="S1" s="3">
+      <c r="S1" s="2">
         <v>3199756</v>
       </c>
-      <c r="T1" s="3">
+      <c r="T1" s="2">
         <v>3209556</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="2">
         <v>3217052</v>
       </c>
-      <c r="V1" s="3">
+      <c r="V1" s="2">
         <v>3295319</v>
       </c>
-      <c r="W1" s="3">
+      <c r="W1" s="2">
         <v>3297614</v>
       </c>
+      <c r="X1" s="2">
+        <v>3301176</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>3302987</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>3307724</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>3308042</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>3310256</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>3311673</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>3315712</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>3316772</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>3319730</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>3319987</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>3323940</v>
+      </c>
+      <c r="AI1" s="9">
+        <v>3325650</v>
+      </c>
+      <c r="AJ1" s="9">
+        <v>3327307</v>
+      </c>
+      <c r="AK1" s="6">
+        <v>3337069</v>
+      </c>
+      <c r="AL1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW1" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX1" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:50" s="3" customFormat="1" ht="21">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -565,24 +686,105 @@
       <c r="R2" s="2">
         <v>3243483</v>
       </c>
-      <c r="S2" s="3">
+      <c r="S2" s="2">
         <v>3264017</v>
       </c>
-      <c r="T2" s="3">
+      <c r="T2" s="2">
         <v>3267879</v>
       </c>
-      <c r="U2" s="6">
+      <c r="U2" s="2">
         <v>3270273</v>
       </c>
-      <c r="V2" s="3">
+      <c r="V2" s="2">
         <v>3289725</v>
       </c>
-      <c r="W2" s="3">
+      <c r="W2" s="2">
         <v>3290788</v>
       </c>
+      <c r="X2" s="2">
+        <v>3292149</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>3293235</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>3295334</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>3295545</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>3296885</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>3298011</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>3301176</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>3301849</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>3302718</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>3303047</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>3304356</v>
+      </c>
+      <c r="AI2" s="9">
+        <v>3305163</v>
+      </c>
+      <c r="AJ2" s="9">
+        <v>3305561</v>
+      </c>
+      <c r="AK2" s="9">
+        <v>3308192</v>
+      </c>
+      <c r="AL2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="9">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" s="3" customFormat="1" ht="21" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50" s="3" customFormat="1" ht="21"/>
+    <row r="4" spans="1:50">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -672,10 +874,114 @@
       </c>
       <c r="X4">
         <f t="shared" ref="X4:X5" si="5">+X1-W1</f>
-        <v>-3297614</v>
+        <v>3562</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" ref="Y4:Z5" si="6">+Y1-X1</f>
+        <v>1811</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="6"/>
+        <v>4737</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" ref="AA4:AA5" si="7">+AA1-Z1</f>
+        <v>318</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" ref="AB4:AB5" si="8">+AB1-AA1</f>
+        <v>2214</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" ref="AC4:AC5" si="9">+AC1-AB1</f>
+        <v>1417</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD5" si="10">+AD1-AC1</f>
+        <v>4039</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" ref="AE4:AE5" si="11">+AE1-AD1</f>
+        <v>1060</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF5" si="12">+AF1-AE1</f>
+        <v>2958</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" ref="AG4:AG5" si="13">+AG1-AF1</f>
+        <v>257</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH5" si="14">+AH1-AG1</f>
+        <v>3953</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" ref="AI4:AI5" si="15">+AI1-AH1</f>
+        <v>1710</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" ref="AJ4:AJ5" si="16">+AJ1-AI1</f>
+        <v>1657</v>
+      </c>
+      <c r="AK4">
+        <f t="shared" ref="AK4:AK5" si="17">+AK1-AJ1</f>
+        <v>9762</v>
+      </c>
+      <c r="AL4">
+        <f t="shared" ref="AL4:AL5" si="18">+AL1-AK1</f>
+        <v>-3337069</v>
+      </c>
+      <c r="AM4">
+        <f t="shared" ref="AM4:AM5" si="19">+AM1-AL1</f>
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <f t="shared" ref="AN4:AN5" si="20">+AN1-AM1</f>
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" ref="AO4:AO5" si="21">+AO1-AN1</f>
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" ref="AP4:AP5" si="22">+AP1-AO1</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ5" si="23">+AQ1-AP1</f>
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <f t="shared" ref="AR4:AR5" si="24">+AR1-AQ1</f>
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <f t="shared" ref="AS4:AS5" si="25">+AS1-AR1</f>
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <f t="shared" ref="AT4:AT5" si="26">+AT1-AS1</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <f t="shared" ref="AU4:AU5" si="27">+AU1-AT1</f>
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <f t="shared" ref="AV4:AV5" si="28">+AV1-AU1</f>
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <f t="shared" ref="AW4:AW5" si="29">+AW1-AV1</f>
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <f t="shared" ref="AX4:AX5" si="30">+AX1-AW1</f>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="B5" t="s">
         <v>1</v>
       </c>
@@ -684,71 +990,71 @@
         <v>14682</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:J5" si="6">+D2-C2</f>
+        <f t="shared" ref="D5:J5" si="31">+D2-C2</f>
         <v>-35489</v>
       </c>
       <c r="E5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>51994</v>
       </c>
       <c r="F5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>2738</v>
       </c>
       <c r="G5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>3278</v>
       </c>
       <c r="H5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>18651</v>
       </c>
       <c r="I5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>2972</v>
       </c>
       <c r="J5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="31"/>
         <v>1432</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:T5" si="7">+K2-J2</f>
+        <f t="shared" ref="K5:T5" si="32">+K2-J2</f>
         <v>1508</v>
       </c>
       <c r="L5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>958</v>
       </c>
       <c r="M5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>3210</v>
       </c>
       <c r="N5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>919</v>
       </c>
       <c r="O5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>4789</v>
       </c>
       <c r="P5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1762</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>1749</v>
       </c>
       <c r="R5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>3052</v>
       </c>
       <c r="S5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>20534</v>
       </c>
       <c r="T5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="32"/>
         <v>3862</v>
       </c>
       <c r="U5">
@@ -765,10 +1071,114 @@
       </c>
       <c r="X5">
         <f t="shared" si="5"/>
-        <v>-3290788</v>
+        <v>1361</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="6"/>
+        <v>1086</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="6"/>
+        <v>2099</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="7"/>
+        <v>211</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="8"/>
+        <v>1340</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="9"/>
+        <v>1126</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="10"/>
+        <v>3165</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="11"/>
+        <v>673</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="12"/>
+        <v>869</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="13"/>
+        <v>329</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="14"/>
+        <v>1309</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="15"/>
+        <v>807</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="16"/>
+        <v>398</v>
+      </c>
+      <c r="AK5">
+        <f t="shared" si="17"/>
+        <v>2631</v>
+      </c>
+      <c r="AL5">
+        <f t="shared" si="18"/>
+        <v>-3308192</v>
+      </c>
+      <c r="AM5">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="30"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -777,91 +1187,195 @@
         <v>2.0109658084729602</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:J6" si="8">+D4/D5</f>
+        <f t="shared" ref="D6:J6" si="33">+D4/D5</f>
         <v>-0.48009242300431121</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>0.53538869869600336</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>2.3031409788166544</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>2.7159853569249544</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>3.3748860650903438</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>3.2759084791386273</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="33"/>
         <v>8.561452513966481</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" ref="K6" si="9">+K4/K5</f>
+        <f t="shared" ref="K6" si="34">+K4/K5</f>
         <v>5.1710875331564985</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" ref="L6" si="10">+L4/L5</f>
+        <f t="shared" ref="L6" si="35">+L4/L5</f>
         <v>3.4613778705636742</v>
       </c>
       <c r="M6" s="1">
-        <f t="shared" ref="M6" si="11">+M4/M5</f>
+        <f t="shared" ref="M6" si="36">+M4/M5</f>
         <v>1.6803738317757009</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" ref="N6" si="12">+N4/N5</f>
+        <f t="shared" ref="N6" si="37">+N4/N5</f>
         <v>3.8748639825897713</v>
       </c>
       <c r="O6" s="1">
-        <f t="shared" ref="O6" si="13">+O4/O5</f>
+        <f t="shared" ref="O6" si="38">+O4/O5</f>
         <v>2.8281478387972436</v>
       </c>
       <c r="P6" s="1">
-        <f t="shared" ref="P6" si="14">+P4/P5</f>
+        <f t="shared" ref="P6" si="39">+P4/P5</f>
         <v>1.9199772985244041</v>
       </c>
       <c r="Q6" s="1">
-        <f t="shared" ref="Q6" si="15">+Q4/Q5</f>
+        <f t="shared" ref="Q6" si="40">+Q4/Q5</f>
         <v>2.7678673527730133</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" ref="R6" si="16">+R4/R5</f>
+        <f t="shared" ref="R6" si="41">+R4/R5</f>
         <v>1.7365661861074706</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" ref="S6" si="17">+S4/S5</f>
+        <f t="shared" ref="S6" si="42">+S4/S5</f>
         <v>2.5302912243108988</v>
       </c>
       <c r="T6" s="1">
-        <f t="shared" ref="T6:W6" si="18">+T4/T5</f>
+        <f t="shared" ref="T6:V6" si="43">+T4/T5</f>
         <v>2.5375453133091663</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>3.1311612364243944</v>
       </c>
       <c r="V6" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="43"/>
         <v>4.0235965453423814</v>
       </c>
       <c r="W6" s="1">
-        <f t="shared" ref="W6:X6" si="19">+W4/W5</f>
+        <f t="shared" ref="W6:AC6" si="44">+W4/W5</f>
         <v>2.1589840075258704</v>
       </c>
       <c r="X6" s="1">
-        <f t="shared" si="19"/>
-        <v>1.0020742752191876</v>
+        <f t="shared" si="44"/>
+        <v>2.6171932402645113</v>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" ref="Y6:AF6" si="45">+Y4/Y5</f>
+        <v>1.6675874769797421</v>
+      </c>
+      <c r="Z6" s="1">
+        <f t="shared" si="45"/>
+        <v>2.2567889471176752</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="45"/>
+        <v>1.5071090047393365</v>
+      </c>
+      <c r="AB6" s="1">
+        <f t="shared" si="45"/>
+        <v>1.6522388059701492</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" ref="AC6:AD6" si="46">+AC4/AC5</f>
+        <v>1.258436944937833</v>
+      </c>
+      <c r="AD6" s="1">
+        <f t="shared" si="46"/>
+        <v>1.2761453396524487</v>
+      </c>
+      <c r="AE6" s="1">
+        <f t="shared" si="45"/>
+        <v>1.575037147102526</v>
+      </c>
+      <c r="AF6" s="1">
+        <f t="shared" si="45"/>
+        <v>3.4039125431530497</v>
+      </c>
+      <c r="AG6" s="1">
+        <f t="shared" ref="AG6:AH6" si="47">+AG4/AG5</f>
+        <v>0.78115501519756836</v>
+      </c>
+      <c r="AH6" s="1">
+        <f t="shared" si="47"/>
+        <v>3.0198624904507256</v>
+      </c>
+      <c r="AI6" s="1">
+        <f t="shared" ref="AI6:AV6" si="48">+AI4/AI5</f>
+        <v>2.1189591078066914</v>
+      </c>
+      <c r="AJ6" s="1">
+        <f t="shared" si="48"/>
+        <v>4.1633165829145726</v>
+      </c>
+      <c r="AK6" s="1">
+        <f t="shared" si="48"/>
+        <v>3.710376282782212</v>
+      </c>
+      <c r="AL6" s="1">
+        <f t="shared" si="48"/>
+        <v>1.0087289371354504</v>
+      </c>
+      <c r="AM6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AN6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AR6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AT6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AV6" s="1" t="e">
+        <f t="shared" si="48"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW6" s="1" t="e">
+        <f t="shared" ref="AW6:AX6" si="49">+AW4/AW5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AX6" s="1" t="e">
+        <f t="shared" si="49"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" s="4" customFormat="1" ht="24">
       <c r="C7" s="4">
         <f>+E1-B1</f>
         <v>74400</v>
@@ -949,8 +1463,112 @@
         <f>+W7/W9</f>
         <v>0.68344252531268612</v>
       </c>
+      <c r="Y7" s="4">
+        <f>+Y4</f>
+        <v>1811</v>
+      </c>
+      <c r="Z7" s="4">
+        <f>+Y7/Y9</f>
+        <v>0.62512944425267514</v>
+      </c>
+      <c r="AA7" s="4">
+        <f>+AA4</f>
+        <v>318</v>
+      </c>
+      <c r="AB7" s="4">
+        <f>+AA7/AA9</f>
+        <v>0.60113421550094515</v>
+      </c>
+      <c r="AC7" s="4">
+        <f>+AC4</f>
+        <v>1417</v>
+      </c>
+      <c r="AD7" s="4">
+        <f>+AC7/AC9</f>
+        <v>0.55721588674793554</v>
+      </c>
+      <c r="AE7" s="4">
+        <f>+AE4</f>
+        <v>1060</v>
+      </c>
+      <c r="AF7" s="4">
+        <f>+AE7/AE9</f>
+        <v>0.61165608770917479</v>
+      </c>
+      <c r="AG7" s="4">
+        <f>+AG4</f>
+        <v>257</v>
+      </c>
+      <c r="AH7" s="4">
+        <f>+AG7/AG9</f>
+        <v>0.43856655290102387</v>
+      </c>
+      <c r="AI7" s="4">
+        <f>+AI4</f>
+        <v>1710</v>
+      </c>
+      <c r="AJ7" s="4">
+        <f>+AI7/AI9</f>
+        <v>0.67938021454112041</v>
+      </c>
+      <c r="AK7" s="4">
+        <f>+AK4</f>
+        <v>9762</v>
+      </c>
+      <c r="AL7" s="4">
+        <f>+AK7/AK9</f>
+        <v>0.78770273541515368</v>
+      </c>
+      <c r="AM7" s="4">
+        <f>+AM4</f>
+        <v>0</v>
+      </c>
+      <c r="AN7" s="4" t="e">
+        <f>+AM7/AM9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO7" s="4">
+        <f>+AO4</f>
+        <v>0</v>
+      </c>
+      <c r="AP7" s="4" t="e">
+        <f>+AO7/AO9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ7" s="4">
+        <f>+AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="AR7" s="4" t="e">
+        <f>+AQ7/AQ9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS7" s="4">
+        <f>+AS4</f>
+        <v>0</v>
+      </c>
+      <c r="AT7" s="4" t="e">
+        <f>+AS7/AS9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU7" s="4">
+        <f>+AU4</f>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="4" t="e">
+        <f>+AU7/AU9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW7" s="4">
+        <f>+AW4</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="4" t="e">
+        <f>+AW7/AW9</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="C8">
         <f>+E2-B2</f>
         <v>31187</v>
@@ -1038,8 +1656,112 @@
         <f>+W8/W9</f>
         <v>0.31655747468731388</v>
       </c>
+      <c r="Y8">
+        <f>+Y5</f>
+        <v>1086</v>
+      </c>
+      <c r="Z8">
+        <f>+Y8/Y9</f>
+        <v>0.37487055574732481</v>
+      </c>
+      <c r="AA8">
+        <f>+AA5</f>
+        <v>211</v>
+      </c>
+      <c r="AB8">
+        <f>+AA8/AA9</f>
+        <v>0.3988657844990548</v>
+      </c>
+      <c r="AC8">
+        <f>+AC5</f>
+        <v>1126</v>
+      </c>
+      <c r="AD8">
+        <f>+AC8/AC9</f>
+        <v>0.44278411325206452</v>
+      </c>
+      <c r="AE8">
+        <f>+AE5</f>
+        <v>673</v>
+      </c>
+      <c r="AF8">
+        <f>+AE8/AE9</f>
+        <v>0.38834391229082516</v>
+      </c>
+      <c r="AG8">
+        <f>+AG5</f>
+        <v>329</v>
+      </c>
+      <c r="AH8">
+        <f>+AG8/AG9</f>
+        <v>0.56143344709897613</v>
+      </c>
+      <c r="AI8">
+        <f>+AI5</f>
+        <v>807</v>
+      </c>
+      <c r="AJ8">
+        <f>+AI8/AI9</f>
+        <v>0.32061978545887959</v>
+      </c>
+      <c r="AK8">
+        <f>+AK5</f>
+        <v>2631</v>
+      </c>
+      <c r="AL8">
+        <f>+AK8/AK9</f>
+        <v>0.2122972645848463</v>
+      </c>
+      <c r="AM8">
+        <f>+AM5</f>
+        <v>0</v>
+      </c>
+      <c r="AN8" t="e">
+        <f>+AM8/AM9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO8">
+        <f>+AO5</f>
+        <v>0</v>
+      </c>
+      <c r="AP8" t="e">
+        <f>+AO8/AO9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ8">
+        <f>+AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AR8" t="e">
+        <f>+AQ8/AQ9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS8">
+        <f>+AS5</f>
+        <v>0</v>
+      </c>
+      <c r="AT8" t="e">
+        <f>+AS8/AS9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU8">
+        <f>+AU5</f>
+        <v>0</v>
+      </c>
+      <c r="AV8" t="e">
+        <f>+AU8/AU9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW8">
+        <f>+AW5</f>
+        <v>0</v>
+      </c>
+      <c r="AX8" t="e">
+        <f>+AW8/AW9</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="C9">
         <f>+C7+C8</f>
         <v>105587</v>
@@ -1128,98 +1850,335 @@
         <f>+X7-X8</f>
         <v>0.36688505062537224</v>
       </c>
+      <c r="Y9">
+        <f>+Y7+Y8</f>
+        <v>2897</v>
+      </c>
+      <c r="Z9">
+        <f>+Z7-Z8</f>
+        <v>0.25025888850535033</v>
+      </c>
+      <c r="AA9">
+        <f>+AA7+AA8</f>
+        <v>529</v>
+      </c>
+      <c r="AB9">
+        <f>+AB7-AB8</f>
+        <v>0.20226843100189035</v>
+      </c>
+      <c r="AC9">
+        <f>+AC7+AC8</f>
+        <v>2543</v>
+      </c>
+      <c r="AD9">
+        <f>+AD7-AD8</f>
+        <v>0.11443177349587103</v>
+      </c>
+      <c r="AE9">
+        <f>+AE7+AE8</f>
+        <v>1733</v>
+      </c>
+      <c r="AF9">
+        <f>+AF7-AF8</f>
+        <v>0.22331217541834963</v>
+      </c>
+      <c r="AG9">
+        <f>+AG7+AG8</f>
+        <v>586</v>
+      </c>
+      <c r="AH9">
+        <f>+AH7-AH8</f>
+        <v>-0.12286689419795227</v>
+      </c>
+      <c r="AI9">
+        <f>+AI7+AI8</f>
+        <v>2517</v>
+      </c>
+      <c r="AJ9">
+        <f>+AJ7-AJ8</f>
+        <v>0.35876042908224082</v>
+      </c>
+      <c r="AK9">
+        <f>+AK7+AK8</f>
+        <v>12393</v>
+      </c>
+      <c r="AL9">
+        <f>+AL7-AL8</f>
+        <v>0.57540547083030735</v>
+      </c>
+      <c r="AM9">
+        <f>+AM7+AM8</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" t="e">
+        <f>+AN7-AN8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AO9">
+        <f>+AO7+AO8</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" t="e">
+        <f>+AP7-AP8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AQ9">
+        <f>+AQ7+AQ8</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" t="e">
+        <f>+AR7-AR8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AS9">
+        <f>+AS7+AS8</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" t="e">
+        <f>+AT7-AT8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU9">
+        <f>+AU7+AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" t="e">
+        <f>+AV7-AV8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AW9">
+        <f>+AW7+AW8</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" t="e">
+        <f>+AX7-AX8</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f t="shared" ref="C10:H10" si="20">+C2-C1</f>
+    <row r="10" spans="1:50" s="7" customFormat="1" ht="26">
+      <c r="C10" s="7">
+        <f t="shared" ref="C10:H10" si="50">+C2-C1</f>
         <v>224323</v>
       </c>
-      <c r="D10">
-        <f t="shared" si="20"/>
+      <c r="D10" s="7">
+        <f t="shared" si="50"/>
         <v>171796</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="20"/>
+      <c r="E10" s="7">
+        <f t="shared" si="50"/>
         <v>195953</v>
       </c>
-      <c r="F10">
-        <f t="shared" si="20"/>
+      <c r="F10" s="7">
+        <f t="shared" si="50"/>
         <v>192385</v>
       </c>
-      <c r="G10">
-        <f t="shared" si="20"/>
+      <c r="G10" s="7">
+        <f t="shared" si="50"/>
         <v>186760</v>
       </c>
-      <c r="H10">
-        <f t="shared" si="20"/>
+      <c r="H10" s="8">
+        <f t="shared" si="50"/>
         <v>142466</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="8">
         <f>+I2-I1</f>
         <v>135702</v>
       </c>
-      <c r="K10">
+      <c r="J10" s="8"/>
+      <c r="K10" s="8">
         <f>+K2-K1</f>
         <v>118584</v>
       </c>
-      <c r="M10">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
         <f>+M2-M1</f>
         <v>114042</v>
       </c>
-      <c r="N10">
-        <f t="shared" ref="N10:S10" si="21">+N2-N1</f>
+      <c r="N10" s="8">
+        <f t="shared" ref="N10" si="51">+N2-N1</f>
         <v>111400</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="8">
         <f>+O2-O1</f>
         <v>102645</v>
       </c>
-      <c r="P10">
-        <f t="shared" ref="P10:R10" si="22">+P2-P1</f>
+      <c r="P10" s="8">
+        <f t="shared" ref="P10:R10" si="52">+P2-P1</f>
         <v>101024</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="8">
         <f>+Q2-Q1</f>
         <v>97932</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="22"/>
+      <c r="R10" s="8">
+        <f t="shared" si="52"/>
         <v>95684</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="8">
         <f>+S2-S1</f>
         <v>64261</v>
       </c>
-      <c r="T10">
-        <f t="shared" ref="T10" si="23">+T2-T1</f>
+      <c r="T10" s="8">
+        <f t="shared" ref="T10" si="53">+T2-T1</f>
         <v>58323</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="8">
         <f>+U2-U1</f>
         <v>53221</v>
       </c>
-      <c r="V10">
-        <f t="shared" ref="V10:X10" si="24">+V2-V1</f>
+      <c r="V10" s="7">
+        <f t="shared" ref="V10" si="54">+V2-V1</f>
         <v>-5594</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="7">
         <f>+W2-W1</f>
         <v>-6826</v>
       </c>
-      <c r="X10">
-        <f t="shared" ref="X10" si="25">+X2-X1</f>
+      <c r="X10" s="7">
+        <f t="shared" ref="X10:Y10" si="55">+X2-X1</f>
+        <v>-9027</v>
+      </c>
+      <c r="Y10" s="7">
+        <f>+Y2-Y1</f>
+        <v>-9752</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" ref="Z10" si="56">+Z2-Z1</f>
+        <v>-12390</v>
+      </c>
+      <c r="AA10" s="7">
+        <f>+AA2-AA1</f>
+        <v>-12497</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" ref="AB10:AK10" si="57">+AB2-AB1</f>
+        <v>-13371</v>
+      </c>
+      <c r="AC10" s="7">
+        <f>+AC2-AC1</f>
+        <v>-13662</v>
+      </c>
+      <c r="AD10" s="7">
+        <f t="shared" si="57"/>
+        <v>-14536</v>
+      </c>
+      <c r="AE10" s="7">
+        <f t="shared" si="57"/>
+        <v>-14923</v>
+      </c>
+      <c r="AF10" s="7">
+        <f t="shared" si="57"/>
+        <v>-17012</v>
+      </c>
+      <c r="AG10" s="7">
+        <f t="shared" si="57"/>
+        <v>-16940</v>
+      </c>
+      <c r="AH10" s="7">
+        <f t="shared" si="57"/>
+        <v>-19584</v>
+      </c>
+      <c r="AI10" s="7">
+        <f t="shared" si="57"/>
+        <v>-20487</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f t="shared" si="57"/>
+        <v>-21746</v>
+      </c>
+      <c r="AK10" s="7">
+        <f>+AK2-AK1</f>
+        <v>-28877</v>
+      </c>
+      <c r="AL10" s="7">
+        <f t="shared" ref="AL10:AM10" si="58">+AL2-AL1</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
+        <f>+AM2-AM1</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <f t="shared" ref="AN10" si="59">+AN2-AN1</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
+        <f>+AO2-AO1</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <f t="shared" ref="AP10:AX10" si="60">+AP2-AP1</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f>+AQ2-AQ1</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <f t="shared" ref="AR10:AX10" si="61">+AR2-AR1</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="D14">
         <f>90000*D9</f>
         <v>36833.795827137808</v>
       </c>
     </row>
+    <row r="26" spans="17:26">
+      <c r="Z26">
+        <f>3800*14</f>
+        <v>53200</v>
+      </c>
+    </row>
+    <row r="31" spans="17:26">
+      <c r="Q31" s="5">
+        <v>2732084</v>
+      </c>
+    </row>
+    <row r="32" spans="17:26" ht="18">
+      <c r="Q32" s="6">
+        <v>2655383</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17">
+      <c r="Q33">
+        <v>66000</v>
+      </c>
+    </row>
+    <row r="34" spans="17:17">
+      <c r="Q34" s="5">
+        <f>SUM(Q31:Q33)</f>
+        <v>5453467</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="D7">
-    <cfRule type="colorScale" priority="28">
+    <cfRule type="colorScale" priority="69">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1229,7 +2188,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="27">
+    <cfRule type="colorScale" priority="68">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1239,7 +2198,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="66">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1247,7 +2206,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="26">
+    <cfRule type="colorScale" priority="67">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1259,7 +2218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="23">
+    <cfRule type="colorScale" priority="64">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1267,7 +2226,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="65">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1279,7 +2238,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="21">
+    <cfRule type="colorScale" priority="62">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1287,7 +2246,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="22">
+    <cfRule type="colorScale" priority="63">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1299,7 +2258,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7">
-    <cfRule type="colorScale" priority="19">
+    <cfRule type="colorScale" priority="60">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1307,7 +2266,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="61">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1319,7 +2278,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="colorScale" priority="17">
+    <cfRule type="colorScale" priority="58">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1327,7 +2286,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="59">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1339,7 +2298,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="56">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1347,7 +2306,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="57">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1359,7 +2318,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R7">
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="54">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1367,7 +2326,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="55">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1379,7 +2338,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="46">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1387,7 +2346,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="47">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1399,7 +2358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V7">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="44">
       <colorScale>
         <cfvo type="num" val="0.67"/>
         <cfvo type="num" val="0.7"/>
@@ -1407,7 +2366,7 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="45">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1419,6 +2378,314 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB7">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:AB10 AY10:XFD10">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="num" val="-20000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50000"/>
+        <color theme="9"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD7">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC10:AJ10">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="num" val="-20000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50000"/>
+        <color theme="9"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ7">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL7">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AP7">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AT7">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK10:AP10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="-20000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50000"/>
+        <color theme="9"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AR7">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ10:AX10">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="-20000"/>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="50000"/>
+        <color theme="9"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFC00000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.67"/>
+        <cfvo type="num" val="0.7"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FF92D050"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AX7">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0.67"/>
